--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_22_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_22_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2101.299068771748</v>
+        <v>418158.5146855781</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2101.299068771748</v>
+        <v>418158.5146855781</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85467.3548952155</v>
+        <v>5836770.504680674</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85467.3548952155</v>
+        <v>5836770.504680674</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1190147313.547783</v>
+        <v>45244954.20851596</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13825.9359273676</v>
+        <v>1243990.240723479</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25479.76980562148</v>
+        <v>2114249.830872302</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37127.85141398307</v>
+        <v>2984509.421021126</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49023.61015971749</v>
+        <v>3853896.76584297</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60919.36890545191</v>
+        <v>4723284.110664813</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72815.12399279235</v>
+        <v>5592671.455486656</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84710.88273852672</v>
+        <v>6462058.800308495</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96606.64148426117</v>
+        <v>7331446.145130333</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>108642.2474256538</v>
+        <v>8157324.896302594</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120743.8941949221</v>
+        <v>8996345.772222115</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>132845.5409641904</v>
+        <v>9835366.648141636</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144947.182267841</v>
+        <v>10674387.52406115</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>157048.8290371092</v>
+        <v>11513408.39998069</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>169151.2364418636</v>
+        <v>12352428.08161174</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>181253.6438466181</v>
+        <v>13191447.76324278</v>
       </c>
     </row>
   </sheetData>
